--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41507.95080656743</v>
+        <v>-43711.33207330247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7228504.546025762</v>
+        <v>7228504.546025763</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9784892908473</v>
+        <v>13.97848929084727</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.91284498878</v>
       </c>
       <c r="I2" t="n">
-        <v>159.4228099035512</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.38863108955456</v>
       </c>
       <c r="S2" t="n">
-        <v>178.8437631752875</v>
+        <v>178.8437631752876</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2397130498935</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>247.5790866930053</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>31.62426920553488</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.6349818986778</v>
       </c>
       <c r="H3" t="n">
-        <v>105.3924852342977</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.00188799798158</v>
+        <v>65.00188799798168</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.16649553541961</v>
+        <v>56.16649553541981</v>
       </c>
       <c r="S3" t="n">
-        <v>93.64232649193089</v>
+        <v>158.5224393262212</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3088343610247</v>
+        <v>197.3088343610248</v>
       </c>
       <c r="U3" t="n">
         <v>225.8947679188345</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.5869091062982</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>144.827957459265</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.4075374525103</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2866286929704</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.824791402917882</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>236.2827329914048</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="T7" t="n">
-        <v>184.2720459863181</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>77.2653962785411</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>244.3243799685264</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.99240337009266</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>160.5379484586262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>185.4836241280753</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>134.4415385849325</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.26879610204352</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.18624009875666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492359</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>79.49505480544489</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2333,7 +2333,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.601081015447603</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>36.15999212057497</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>239.9115438999874</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>114.4746605491553</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083903</v>
       </c>
     </row>
     <row r="32">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>84.69473660442797</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320714</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.8780802755082</v>
+        <v>350.8780802755081</v>
       </c>
       <c r="C35" t="n">
-        <v>333.4171303830352</v>
+        <v>333.4171303830351</v>
       </c>
       <c r="D35" t="n">
-        <v>322.8272802327106</v>
+        <v>322.8272802327105</v>
       </c>
       <c r="E35" t="n">
-        <v>350.0746086842894</v>
+        <v>350.0746086842893</v>
       </c>
       <c r="F35" t="n">
-        <v>375.020284353739</v>
+        <v>375.0202843537389</v>
       </c>
       <c r="G35" t="n">
-        <v>379.0659642654811</v>
+        <v>379.0659642654809</v>
       </c>
       <c r="H35" t="n">
-        <v>262.7520029993481</v>
+        <v>262.752002999348</v>
       </c>
       <c r="I35" t="n">
-        <v>9.721168384953572</v>
+        <v>9.721168384953472</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.33200040020346</v>
+        <v>77.33200040020336</v>
       </c>
       <c r="T35" t="n">
         <v>172.0622087516477</v>
       </c>
       <c r="U35" t="n">
-        <v>219.1394105709296</v>
+        <v>219.1394105709295</v>
       </c>
       <c r="V35" t="n">
         <v>295.8964970821625</v>
       </c>
       <c r="W35" t="n">
-        <v>317.3852073294406</v>
+        <v>317.3852073294405</v>
       </c>
       <c r="X35" t="n">
-        <v>337.8753392904966</v>
+        <v>337.8753392904965</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.3821772680812</v>
+        <v>354.3821772680811</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.9762187939649</v>
+        <v>147.9762187939648</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>135.3910597106554</v>
       </c>
       <c r="D37" t="n">
-        <v>116.75971163024</v>
+        <v>47.26290981524572</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>114.5782012585967</v>
       </c>
       <c r="F37" t="n">
-        <v>67.57320562790774</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.1700468710559</v>
+        <v>134.1700468710557</v>
       </c>
       <c r="H37" t="n">
-        <v>112.8992535263484</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.07639128207495</v>
+        <v>57.07639128207485</v>
       </c>
       <c r="S37" t="n">
-        <v>157.9132639434695</v>
+        <v>157.9132639434694</v>
       </c>
       <c r="T37" t="n">
-        <v>187.6931878881968</v>
+        <v>187.6931878881967</v>
       </c>
       <c r="U37" t="n">
-        <v>254.3560768176405</v>
+        <v>254.3560768176404</v>
       </c>
       <c r="V37" t="n">
-        <v>220.2818819358556</v>
+        <v>220.2818819358555</v>
       </c>
       <c r="W37" t="n">
-        <v>254.6672369486186</v>
+        <v>254.6672369486185</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8538940010648</v>
+        <v>193.8538940010647</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.7288919641224</v>
+        <v>186.7288919641223</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,7 +3560,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404363</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4150,10 +4150,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957277</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1397.895688093463</v>
+        <v>1512.737402162653</v>
       </c>
       <c r="C2" t="n">
-        <v>1397.895688093463</v>
+        <v>1143.774885222241</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.629989486712</v>
+        <v>785.5091866154906</v>
       </c>
       <c r="E2" t="n">
-        <v>1039.629989486712</v>
+        <v>399.7209340172464</v>
       </c>
       <c r="F2" t="n">
-        <v>628.6440846971049</v>
+        <v>392.7754332680429</v>
       </c>
       <c r="G2" t="n">
-        <v>210.4839945043298</v>
+        <v>378.6557471156719</v>
       </c>
       <c r="H2" t="n">
-        <v>210.4839945043298</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="I2" t="n">
-        <v>49.45085318761147</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="J2" t="n">
-        <v>148.8910303254289</v>
+        <v>148.8910303254283</v>
       </c>
       <c r="K2" t="n">
-        <v>418.6708828959958</v>
+        <v>418.6708828959946</v>
       </c>
       <c r="L2" t="n">
-        <v>805.6332731184056</v>
+        <v>805.6332731184036</v>
       </c>
       <c r="M2" t="n">
-        <v>1252.810037384152</v>
+        <v>1252.81003738415</v>
       </c>
       <c r="N2" t="n">
-        <v>1692.590591658819</v>
+        <v>1692.590591658815</v>
       </c>
       <c r="O2" t="n">
-        <v>2062.675260521436</v>
+        <v>2062.675260521431</v>
       </c>
       <c r="P2" t="n">
-        <v>2340.859580276721</v>
+        <v>2340.859580276716</v>
       </c>
       <c r="Q2" t="n">
-        <v>2472.542659380574</v>
+        <v>2472.542659380568</v>
       </c>
       <c r="R2" t="n">
-        <v>2472.542659380574</v>
+        <v>2432.756163330513</v>
       </c>
       <c r="S2" t="n">
-        <v>2291.89239354695</v>
+        <v>2252.105897496889</v>
       </c>
       <c r="T2" t="n">
-        <v>2291.89239354695</v>
+        <v>2252.105897496889</v>
       </c>
       <c r="U2" t="n">
-        <v>2038.114905617765</v>
+        <v>2252.105897496889</v>
       </c>
       <c r="V2" t="n">
-        <v>1788.035020069275</v>
+        <v>2252.105897496889</v>
       </c>
       <c r="W2" t="n">
-        <v>1788.035020069275</v>
+        <v>1899.337242226775</v>
       </c>
       <c r="X2" t="n">
-        <v>1788.035020069275</v>
+        <v>1899.337242226775</v>
       </c>
       <c r="Y2" t="n">
-        <v>1397.895688093463</v>
+        <v>1899.337242226775</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.7409668570018</v>
+        <v>754.9901623275434</v>
       </c>
       <c r="C3" t="n">
-        <v>814.2879375758748</v>
+        <v>580.5371330464164</v>
       </c>
       <c r="D3" t="n">
-        <v>665.3535279146236</v>
+        <v>431.6027233851652</v>
       </c>
       <c r="E3" t="n">
-        <v>506.116072909168</v>
+        <v>399.6590171169481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5815149360529</v>
+        <v>253.1244591438331</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5663817050653</v>
+        <v>115.1093259128454</v>
       </c>
       <c r="H3" t="n">
         <v>115.1093259128454</v>
       </c>
       <c r="I3" t="n">
-        <v>49.45085318761147</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="J3" t="n">
-        <v>114.9833617744802</v>
+        <v>114.9833617744798</v>
       </c>
       <c r="K3" t="n">
-        <v>174.0830250980942</v>
+        <v>353.6096999286444</v>
       </c>
       <c r="L3" t="n">
-        <v>556.3499813523711</v>
+        <v>556.3499813523681</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.416710573923</v>
+        <v>1054.416710573919</v>
       </c>
       <c r="N3" t="n">
-        <v>1581.372797461619</v>
+        <v>1581.372797461615</v>
       </c>
       <c r="O3" t="n">
-        <v>1997.018989484889</v>
+        <v>1997.018989484884</v>
       </c>
       <c r="P3" t="n">
-        <v>2313.608634921743</v>
+        <v>2313.608634921738</v>
       </c>
       <c r="Q3" t="n">
-        <v>2472.542659380574</v>
+        <v>2472.542659380568</v>
       </c>
       <c r="R3" t="n">
-        <v>2415.808825506413</v>
+        <v>2415.808825506406</v>
       </c>
       <c r="S3" t="n">
-        <v>2321.220616928705</v>
+        <v>2255.685149419314</v>
       </c>
       <c r="T3" t="n">
-        <v>2121.918764038781</v>
+        <v>2056.38329652939</v>
       </c>
       <c r="U3" t="n">
-        <v>1893.742230787433</v>
+        <v>1828.206763278042</v>
       </c>
       <c r="V3" t="n">
-        <v>1658.59012255569</v>
+        <v>1593.0546550463</v>
       </c>
       <c r="W3" t="n">
-        <v>1404.352765827489</v>
+        <v>1338.817298318098</v>
       </c>
       <c r="X3" t="n">
-        <v>1196.501265621956</v>
+        <v>1130.965798112565</v>
       </c>
       <c r="Y3" t="n">
-        <v>988.7409668570018</v>
+        <v>923.2054993476115</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357.3637119804661</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="C4" t="n">
-        <v>188.4275290525591</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="D4" t="n">
-        <v>188.4275290525591</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4275290525591</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4275290525591</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4275290525591</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4275290525591</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45085318761147</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="J4" t="n">
-        <v>49.45085318761147</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="K4" t="n">
-        <v>95.72733544563175</v>
+        <v>95.72733544563134</v>
       </c>
       <c r="L4" t="n">
-        <v>210.4717349036536</v>
+        <v>210.4717349036528</v>
       </c>
       <c r="M4" t="n">
-        <v>341.8427388746868</v>
+        <v>341.8427388746857</v>
       </c>
       <c r="N4" t="n">
-        <v>475.5246504217735</v>
+        <v>475.524650421772</v>
       </c>
       <c r="O4" t="n">
-        <v>582.9852372653925</v>
+        <v>582.9852372653907</v>
       </c>
       <c r="P4" t="n">
-        <v>651.4156514712623</v>
+        <v>651.4156514712603</v>
       </c>
       <c r="Q4" t="n">
-        <v>651.4156514712623</v>
+        <v>651.4156514712603</v>
       </c>
       <c r="R4" t="n">
-        <v>651.4156514712623</v>
+        <v>505.1247853507906</v>
       </c>
       <c r="S4" t="n">
-        <v>651.4156514712623</v>
+        <v>505.1247853507906</v>
       </c>
       <c r="T4" t="n">
-        <v>651.4156514712623</v>
+        <v>277.4404040856287</v>
       </c>
       <c r="U4" t="n">
-        <v>362.2372386500801</v>
+        <v>277.4404040856287</v>
       </c>
       <c r="V4" t="n">
-        <v>362.2372386500801</v>
+        <v>277.4404040856287</v>
       </c>
       <c r="W4" t="n">
-        <v>357.3637119804661</v>
+        <v>277.4404040856287</v>
       </c>
       <c r="X4" t="n">
-        <v>357.3637119804661</v>
+        <v>49.45085318761136</v>
       </c>
       <c r="Y4" t="n">
-        <v>357.3637119804661</v>
+        <v>49.45085318761136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4632,34 +4632,34 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>541.9956044222747</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9956044222747</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>541.9956044222747</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7408973472311</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7408973472311</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7408973472311</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E8" t="n">
-        <v>549.9526447489868</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>718.6990929206892</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>300.735284818876</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.340737411353</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1322.340737411353</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,28 +4884,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2146.023796791562</v>
+        <v>2146.023796791561</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.06127985115</v>
+        <v>1777.061279851149</v>
       </c>
       <c r="D11" t="n">
-        <v>1418.7955812444</v>
+        <v>1418.795581244399</v>
       </c>
       <c r="E11" t="n">
-        <v>1256.636037346797</v>
+        <v>1033.007328646155</v>
       </c>
       <c r="F11" t="n">
-        <v>845.6501325571897</v>
+        <v>845.6501325571896</v>
       </c>
       <c r="G11" t="n">
-        <v>430.5776824021863</v>
+        <v>430.5776824021862</v>
       </c>
       <c r="H11" t="n">
         <v>132.9940820109534</v>
@@ -5039,22 +5039,22 @@
         <v>90.99718325042214</v>
       </c>
       <c r="J11" t="n">
-        <v>279.8763142094476</v>
+        <v>339.0532896053556</v>
       </c>
       <c r="K11" t="n">
-        <v>613.6956878992941</v>
+        <v>672.8726632952021</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.214503552649</v>
+        <v>1123.906876543611</v>
       </c>
       <c r="M11" t="n">
-        <v>2456.764806382477</v>
+        <v>2102.457179373439</v>
       </c>
       <c r="N11" t="n">
-        <v>3003.54362344126</v>
+        <v>2649.235996432222</v>
       </c>
       <c r="O11" t="n">
-        <v>3847.781367851444</v>
+        <v>3529.200646761677</v>
       </c>
       <c r="P11" t="n">
         <v>4242.555734208622</v>
@@ -5081,10 +5081,10 @@
         <v>3296.228727092575</v>
       </c>
       <c r="X11" t="n">
-        <v>2922.762968831496</v>
+        <v>2922.762968831495</v>
       </c>
       <c r="Y11" t="n">
-        <v>2532.623636855684</v>
+        <v>2532.623636855683</v>
       </c>
     </row>
     <row r="12">
@@ -5109,25 +5109,25 @@
         <v>336.8694693783984</v>
       </c>
       <c r="G12" t="n">
-        <v>200.5063692110168</v>
+        <v>200.5063692110167</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0044748488845</v>
+        <v>110.0044748488841</v>
       </c>
       <c r="I12" t="n">
         <v>90.99718325042214</v>
       </c>
       <c r="J12" t="n">
-        <v>184.6744527410395</v>
+        <v>184.6744527410398</v>
       </c>
       <c r="K12" t="n">
-        <v>422.9386517213866</v>
+        <v>422.9386517213867</v>
       </c>
       <c r="L12" t="n">
         <v>789.6368120340518</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.913137256367</v>
+        <v>1236.913137256368</v>
       </c>
       <c r="N12" t="n">
         <v>1710.436180810822</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.99718325042215</v>
+        <v>258.7000198757032</v>
       </c>
       <c r="C13" t="n">
-        <v>90.99718325042214</v>
+        <v>258.7000198757032</v>
       </c>
       <c r="D13" t="n">
-        <v>90.99718325042214</v>
+        <v>258.7000198757032</v>
       </c>
       <c r="E13" t="n">
-        <v>90.99718325042214</v>
+        <v>258.7000198757032</v>
       </c>
       <c r="F13" t="n">
-        <v>90.99718325042214</v>
+        <v>258.7000198757032</v>
       </c>
       <c r="G13" t="n">
         <v>90.99718325042214</v>
@@ -5197,16 +5197,16 @@
         <v>90.99718325042214</v>
       </c>
       <c r="J13" t="n">
-        <v>136.1198156973577</v>
+        <v>136.1198156973578</v>
       </c>
       <c r="K13" t="n">
-        <v>340.1069986462337</v>
+        <v>340.1069986462342</v>
       </c>
       <c r="L13" t="n">
-        <v>656.6667970947299</v>
+        <v>656.6667970947306</v>
       </c>
       <c r="M13" t="n">
-        <v>1000.823842694279</v>
+        <v>1000.82384269428</v>
       </c>
       <c r="N13" t="n">
         <v>1342.232219400144</v>
@@ -5215,34 +5215,34 @@
         <v>1641.561818320557</v>
       </c>
       <c r="P13" t="n">
-        <v>1874.169318754216</v>
+        <v>1874.169318754217</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.779614906731</v>
+        <v>1951.779614906732</v>
       </c>
       <c r="R13" t="n">
-        <v>1951.779614906731</v>
+        <v>1861.94915766426</v>
       </c>
       <c r="S13" t="n">
-        <v>1776.398918669887</v>
+        <v>1670.263273491086</v>
       </c>
       <c r="T13" t="n">
-        <v>1554.632303239413</v>
+        <v>1448.496658060612</v>
       </c>
       <c r="U13" t="n">
-        <v>1265.529436365057</v>
+        <v>1159.393791186255</v>
       </c>
       <c r="V13" t="n">
-        <v>1010.84494815917</v>
+        <v>904.7093029803682</v>
       </c>
       <c r="W13" t="n">
-        <v>721.4277781222094</v>
+        <v>615.2921329434075</v>
       </c>
       <c r="X13" t="n">
-        <v>493.438227224192</v>
+        <v>615.2921329434075</v>
       </c>
       <c r="Y13" t="n">
-        <v>272.6456480806619</v>
+        <v>394.4995537998774</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2949.638265046256</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.417082105038</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O14" t="n">
-        <v>3999.389552984375</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423085</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423083</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423083</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442064</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931534</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.89096650106</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208166</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838559</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858386</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423085</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,46 +5519,46 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139993</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.5901955154779</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>283.6540125875711</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>283.6540125875711</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>283.6540125875711</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>283.6540125875711</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>115.95117596229</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570254</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590081</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154779</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749765</v>
@@ -5738,7 +5738,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551631</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001584</v>
@@ -5750,22 +5750,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N20" t="n">
-        <v>2762.028521254639</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5795,7 +5795,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5832,7 +5832,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.4103109586945</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5920,40 +5920,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1876.045430947686</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1876.045430947686</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1586.942564073329</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1332.258075867442</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>1042.840905830482</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>814.8513549324643</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.0587757889342</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,46 +5993,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518748</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1948.66560649314</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1948.66560649314</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454625</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474452</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039149</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763014</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1728.132337365293</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.029470490936</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1184.344982285049</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W28" t="n">
-        <v>894.9278122480886</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="X28" t="n">
-        <v>666.9382613500712</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.1456822065411</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="29">
@@ -6440,61 +6440,61 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>369.0989517407039</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622687</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,22 +6698,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="C34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6865,7 +6865,7 @@
         <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6880,25 +6880,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201818</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221645</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
         <v>277.2094992786341</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.123333047749</v>
+        <v>2139.123333047748</v>
       </c>
       <c r="C35" t="n">
-        <v>1802.338352862865</v>
+        <v>1802.338352862864</v>
       </c>
       <c r="D35" t="n">
-        <v>1476.250191011643</v>
+        <v>1476.250191011642</v>
       </c>
       <c r="E35" t="n">
-        <v>1122.639475168926</v>
+        <v>1122.639475168925</v>
       </c>
       <c r="F35" t="n">
-        <v>743.831107134846</v>
+        <v>743.8311071348454</v>
       </c>
       <c r="G35" t="n">
-        <v>360.9361937353701</v>
+        <v>360.9361937353697</v>
       </c>
       <c r="H35" t="n">
-        <v>95.53013009966509</v>
+        <v>95.53013009966494</v>
       </c>
       <c r="I35" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466143</v>
       </c>
       <c r="J35" t="n">
-        <v>441.99554807404</v>
+        <v>441.9955480740399</v>
       </c>
       <c r="K35" t="n">
-        <v>1096.718880209339</v>
+        <v>775.8149217638863</v>
       </c>
       <c r="L35" t="n">
-        <v>1547.753093457748</v>
+        <v>1304.60451691348</v>
       </c>
       <c r="M35" t="n">
-        <v>2081.284998129673</v>
+        <v>1838.136421585405</v>
       </c>
       <c r="N35" t="n">
-        <v>2628.063815188455</v>
+        <v>2384.915238644187</v>
       </c>
       <c r="O35" t="n">
-        <v>3131.036286067792</v>
+        <v>3264.879888973642</v>
       </c>
       <c r="P35" t="n">
-        <v>3702.98387999303</v>
+        <v>3978.234976420587</v>
       </c>
       <c r="Q35" t="n">
-        <v>4161.462082502018</v>
+        <v>4226.52133817627</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.538404733074</v>
+        <v>4285.538404733072</v>
       </c>
       <c r="S35" t="n">
-        <v>4207.425273015695</v>
+        <v>4207.425273015694</v>
       </c>
       <c r="T35" t="n">
-        <v>4033.625062155445</v>
+        <v>4033.625062155444</v>
       </c>
       <c r="U35" t="n">
-        <v>3812.27212218481</v>
+        <v>3812.272122184808</v>
       </c>
       <c r="V35" t="n">
-        <v>3513.386771596767</v>
+        <v>3513.386771596764</v>
       </c>
       <c r="W35" t="n">
-        <v>3192.79565308218</v>
+        <v>3192.795653082178</v>
       </c>
       <c r="X35" t="n">
-        <v>2851.507431576628</v>
+        <v>2851.507431576626</v>
       </c>
       <c r="Y35" t="n">
-        <v>2493.545636356343</v>
+        <v>2493.545636356342</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>104.7180596931235</v>
       </c>
       <c r="I36" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466143</v>
       </c>
       <c r="J36" t="n">
-        <v>179.3880375852789</v>
+        <v>179.3880375852788</v>
       </c>
       <c r="K36" t="n">
-        <v>417.6522365656261</v>
+        <v>417.6522365656259</v>
       </c>
       <c r="L36" t="n">
-        <v>784.3503968782915</v>
+        <v>784.3503968782913</v>
       </c>
       <c r="M36" t="n">
         <v>1231.626722100607</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>521.4705839083504</v>
+        <v>521.4705839083518</v>
       </c>
       <c r="C37" t="n">
-        <v>521.4705839083504</v>
+        <v>384.7119377359727</v>
       </c>
       <c r="D37" t="n">
-        <v>403.5314812515423</v>
+        <v>336.9716247912801</v>
       </c>
       <c r="E37" t="n">
-        <v>403.5314812515423</v>
+        <v>221.2360679644147</v>
       </c>
       <c r="F37" t="n">
-        <v>335.2757179910294</v>
+        <v>221.2360679644147</v>
       </c>
       <c r="G37" t="n">
-        <v>199.750418121276</v>
+        <v>85.71076809466143</v>
       </c>
       <c r="H37" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466143</v>
       </c>
       <c r="I37" t="n">
-        <v>85.71076809466147</v>
+        <v>85.71076809466143</v>
       </c>
       <c r="J37" t="n">
         <v>162.3706043156897</v>
       </c>
       <c r="K37" t="n">
-        <v>397.8949910386586</v>
+        <v>397.8949910386589</v>
       </c>
       <c r="L37" t="n">
-        <v>745.9919932612474</v>
+        <v>745.9919932612478</v>
       </c>
       <c r="M37" t="n">
         <v>1121.686242634889</v>
       </c>
       <c r="N37" t="n">
-        <v>1494.631823114846</v>
+        <v>1494.631823114847</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.498625809352</v>
+        <v>1825.498625809353</v>
       </c>
       <c r="P37" t="n">
-        <v>2089.643330017104</v>
+        <v>2089.643330017105</v>
       </c>
       <c r="Q37" t="n">
-        <v>2198.790829943712</v>
+        <v>2198.790829943713</v>
       </c>
       <c r="R37" t="n">
-        <v>2141.137909456767</v>
+        <v>2141.137909456768</v>
       </c>
       <c r="S37" t="n">
-        <v>1981.629562039121</v>
+        <v>1981.629562039122</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.040483364175</v>
+        <v>1792.040483364176</v>
       </c>
       <c r="U37" t="n">
-        <v>1535.115153245346</v>
+        <v>1535.115153245348</v>
       </c>
       <c r="V37" t="n">
-        <v>1312.608201794987</v>
+        <v>1312.608201794988</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.368568513554</v>
+        <v>1055.368568513556</v>
       </c>
       <c r="X37" t="n">
-        <v>859.5565543710647</v>
+        <v>859.5565543710661</v>
       </c>
       <c r="Y37" t="n">
-        <v>670.9415119830624</v>
+        <v>670.9415119830637</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
@@ -7187,37 +7187,37 @@
         <v>2456.09431497013</v>
       </c>
       <c r="O38" t="n">
-        <v>2959.066785849467</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302698</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7360,22 +7360,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7415,22 +7415,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N41" t="n">
-        <v>2568.163811692541</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O41" t="n">
-        <v>3071.136282571878</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415478</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7588,13 +7588,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570352</v>
@@ -7609,10 +7609,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398484</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668888</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>291.5583700766102</v>
       </c>
       <c r="K44" t="n">
-        <v>1045.699547878784</v>
+        <v>625.3777437664567</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127192</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799117</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.044482857899</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737236</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7789,16 +7789,16 @@
         <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643391</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519661</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>83.1251614261633</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>189.5002697170424</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>59.7747226221293</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7123975059066</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>130.0020851999082</v>
       </c>
       <c r="P14" t="n">
-        <v>11.641534435788</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,25 +9167,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>316.1012371454191</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>148.4180109385406</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>417.9366924407896</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>107.5040408147563</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>17.45080131651036</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>78.54078979917659</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>178.9628561293537</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>334.4868774152276</v>
       </c>
       <c r="P38" t="n">
-        <v>122.1718867553238</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>221.2853655744079</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>287.0017854473908</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="K44" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>221.3924216136356</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>221.3924216136361</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>45.39044159700475</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370432</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1651665445256</v>
+        <v>146.4339626465662</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>124.5687748155641</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>92.48912964370425</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>110.273970525997</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>81.33107165459973</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>183.3889571555942</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.61145443660362</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>92.48912964370452</v>
       </c>
     </row>
     <row r="32">
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.14213605696577</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.3910597106554</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>69.49680181499416</v>
       </c>
       <c r="E37" t="n">
-        <v>114.5782012585968</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.99208100705112</v>
+        <v>113.5652866349588</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>112.8992535263483</v>
       </c>
       <c r="I37" t="n">
-        <v>64.49665902186572</v>
+        <v>64.49665902186561</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.567457650993652e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457131</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>310616.2948054083</v>
+        <v>310616.2948054082</v>
       </c>
       <c r="F2" t="n">
         <v>317665.4295095865</v>
@@ -26341,7 +26341,7 @@
         <v>317665.4295095865</v>
       </c>
       <c r="L2" t="n">
-        <v>317665.4295095865</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="M2" t="n">
         <v>324956.3111361309</v>
@@ -26350,10 +26350,10 @@
         <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457133</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457132</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524572.1009423665</v>
+        <v>524572.1009423647</v>
       </c>
       <c r="C3" t="n">
-        <v>62156.63307939461</v>
+        <v>62156.63307939637</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>710344.0944560545</v>
+        <v>710344.0944560546</v>
       </c>
       <c r="F3" t="n">
         <v>16345.77535437761</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161731.4878927427</v>
+        <v>161731.4878927423</v>
       </c>
       <c r="K3" t="n">
-        <v>14451.62702442954</v>
+        <v>14451.62702442997</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110226.2270698833</v>
+        <v>110226.2270698832</v>
       </c>
       <c r="N3" t="n">
-        <v>12095.50018449614</v>
+        <v>12095.50018449603</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236173.1445153625</v>
+        <v>236173.144515363</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,37 +26424,37 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>27960.33741398219</v>
+        <v>27960.33741398215</v>
       </c>
       <c r="F4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="H4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="J4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="M4" t="n">
-        <v>55434.63300596864</v>
+        <v>55434.63300596872</v>
       </c>
       <c r="N4" t="n">
+        <v>66395.57832303864</v>
+      </c>
+      <c r="O4" t="n">
         <v>66395.5783230387</v>
-      </c>
-      <c r="O4" t="n">
-        <v>66395.57832303869</v>
       </c>
       <c r="P4" t="n">
         <v>66395.57832303867</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78391.31548084129</v>
+        <v>78391.31548084118</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26494,16 +26494,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91575.39782900206</v>
+        <v>91575.39782900205</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510719.8529928573</v>
+        <v>-510719.8529928557</v>
       </c>
       <c r="C6" t="n">
-        <v>-35379.32819542603</v>
+        <v>-35379.32819542781</v>
       </c>
       <c r="D6" t="n">
-        <v>26777.30488396893</v>
+        <v>26777.30488396875</v>
       </c>
       <c r="E6" t="n">
-        <v>-520603.1284078831</v>
+        <v>-520714.3809900101</v>
       </c>
       <c r="F6" t="n">
-        <v>172903.1808706975</v>
+        <v>172835.9853804718</v>
       </c>
       <c r="G6" t="n">
-        <v>189248.9562250751</v>
+        <v>189181.7607348492</v>
       </c>
       <c r="H6" t="n">
-        <v>189248.9562250751</v>
+        <v>189181.7607348493</v>
       </c>
       <c r="I6" t="n">
-        <v>189248.9562250751</v>
+        <v>189181.7607348493</v>
       </c>
       <c r="J6" t="n">
-        <v>27517.46833233231</v>
+        <v>27450.27284210696</v>
       </c>
       <c r="K6" t="n">
-        <v>174797.3292006456</v>
+        <v>174730.1337104194</v>
       </c>
       <c r="L6" t="n">
-        <v>189248.9562250751</v>
+        <v>189181.7607348492</v>
       </c>
       <c r="M6" t="n">
-        <v>67720.05323127698</v>
+        <v>67698.42575121704</v>
       </c>
       <c r="N6" t="n">
-        <v>160547.6877633723</v>
+        <v>160547.6877633724</v>
       </c>
       <c r="O6" t="n">
         <v>172643.1879478685</v>
       </c>
       <c r="P6" t="n">
-        <v>172643.1879478684</v>
+        <v>172643.1879478685</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.406745791586</v>
+        <v>329.4067457915846</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451434</v>
+        <v>618.1356648451419</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>1071.384601183268</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="N2" t="n">
-        <v>15.11937523062018</v>
+        <v>15.11937523062004</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.406745791586</v>
+        <v>329.4067457915846</v>
       </c>
       <c r="C3" t="n">
-        <v>48.3369184255007</v>
+        <v>48.33691842550211</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451434</v>
+        <v>618.1356648451419</v>
       </c>
       <c r="C4" t="n">
-        <v>56.15160790941218</v>
+        <v>56.15160790941366</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451434</v>
+        <v>618.1356648451419</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941196</v>
+        <v>56.15160790941366</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540592</v>
+        <v>340.0491884540587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451434</v>
+        <v>618.1356648451419</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941218</v>
+        <v>56.15160790941366</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>325.9128449887799</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.4228099035514</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>66.68481042223223</v>
+        <v>27.29617933267802</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.2989529623116</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2397130498935</v>
       </c>
       <c r="V2" t="n">
-        <v>80.17317177712962</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>126.0208112498661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.3924852342977</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>64.88011283429027</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.9458643536007</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>137.5869091062983</v>
       </c>
       <c r="J4" t="n">
-        <v>51.36252008353894</v>
+        <v>51.36252008353912</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.4216246371649</v>
+        <v>36.42162463716512</v>
       </c>
       <c r="R4" t="n">
-        <v>150.5844444151173</v>
+        <v>5.756486955852438</v>
       </c>
       <c r="S4" t="n">
         <v>213.6645860421777</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4075374525103</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2866286929704</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>281.6982069336731</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>145.647637080857</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="T7" t="n">
-        <v>40.76305947176616</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>329.6106494631703</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>79.5983927958307</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.6230696481197</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>96.92615468724713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.263156927928748e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="C35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="D35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="E35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="F35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="G35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="H35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="I35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="T35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="U35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="V35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="W35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="X35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="C37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="D37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="E37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="F37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="G37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="H37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="I37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="J37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="K37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="M37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="N37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="O37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="P37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="R37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="S37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="T37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="U37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="V37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="W37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="X37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.85576138797238</v>
+        <v>31.85576138797248</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.324248224287782</v>
+        <v>1.324248224287776</v>
       </c>
       <c r="H2" t="n">
-        <v>13.56195712698725</v>
+        <v>13.56195712698719</v>
       </c>
       <c r="I2" t="n">
-        <v>51.05307966685476</v>
+        <v>51.05307966685454</v>
       </c>
       <c r="J2" t="n">
-        <v>112.3939127261452</v>
+        <v>112.3939127261447</v>
       </c>
       <c r="K2" t="n">
-        <v>168.4493400602471</v>
+        <v>168.4493400602463</v>
       </c>
       <c r="L2" t="n">
-        <v>208.9763016542943</v>
+        <v>208.9763016542934</v>
       </c>
       <c r="M2" t="n">
-        <v>232.5264010129721</v>
+        <v>232.5264010129711</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2889212802298</v>
+        <v>236.2889212802288</v>
       </c>
       <c r="O2" t="n">
-        <v>223.1209279999682</v>
+        <v>223.1209279999672</v>
       </c>
       <c r="P2" t="n">
-        <v>190.4285499628635</v>
+        <v>190.4285499628627</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.0039104305573</v>
+        <v>143.0039104305567</v>
       </c>
       <c r="R2" t="n">
-        <v>83.18430751891745</v>
+        <v>83.18430751891709</v>
       </c>
       <c r="S2" t="n">
-        <v>30.17630641095786</v>
+        <v>30.17630641095773</v>
       </c>
       <c r="T2" t="n">
-        <v>5.796896601819769</v>
+        <v>5.796896601819743</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1059398579430225</v>
+        <v>0.1059398579430221</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7085352645328453</v>
+        <v>0.7085352645328423</v>
       </c>
       <c r="H3" t="n">
-        <v>6.842959002198797</v>
+        <v>6.842959002198768</v>
       </c>
       <c r="I3" t="n">
-        <v>24.39474485343349</v>
+        <v>24.39474485343339</v>
       </c>
       <c r="J3" t="n">
-        <v>66.94104444430712</v>
+        <v>66.94104444430684</v>
       </c>
       <c r="K3" t="n">
-        <v>114.4129071680078</v>
+        <v>114.4129071680073</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8422731170987</v>
+        <v>153.8422731170981</v>
       </c>
       <c r="M3" t="n">
-        <v>179.5266764564144</v>
+        <v>179.5266764564136</v>
       </c>
       <c r="N3" t="n">
-        <v>184.2782133839175</v>
+        <v>184.2782133839167</v>
       </c>
       <c r="O3" t="n">
-        <v>168.5785635750582</v>
+        <v>168.5785635750574</v>
       </c>
       <c r="P3" t="n">
-        <v>135.2991594176799</v>
+        <v>135.2991594176793</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.44390499545585</v>
+        <v>90.44390499545545</v>
       </c>
       <c r="R3" t="n">
-        <v>43.99133861722352</v>
+        <v>43.99133861722333</v>
       </c>
       <c r="S3" t="n">
-        <v>13.16073177761666</v>
+        <v>13.1607317776166</v>
       </c>
       <c r="T3" t="n">
-        <v>2.855894333796862</v>
+        <v>2.85589433379685</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04661416214031879</v>
+        <v>0.04661416214031859</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5940121645422042</v>
+        <v>0.5940121645422016</v>
       </c>
       <c r="H4" t="n">
-        <v>5.281308153838873</v>
+        <v>5.281308153838851</v>
       </c>
       <c r="I4" t="n">
-        <v>17.86356582096011</v>
+        <v>17.86356582096003</v>
       </c>
       <c r="J4" t="n">
-        <v>41.99666003313384</v>
+        <v>41.99666003313365</v>
       </c>
       <c r="K4" t="n">
-        <v>69.01341329863061</v>
+        <v>69.01341329863031</v>
       </c>
       <c r="L4" t="n">
-        <v>88.31340853566553</v>
+        <v>88.31340853566515</v>
       </c>
       <c r="M4" t="n">
-        <v>93.11410684728386</v>
+        <v>93.11410684728347</v>
       </c>
       <c r="N4" t="n">
-        <v>90.90006150671755</v>
+        <v>90.90006150671715</v>
       </c>
       <c r="O4" t="n">
-        <v>83.96091940274722</v>
+        <v>83.96091940274685</v>
       </c>
       <c r="P4" t="n">
-        <v>71.8430712460862</v>
+        <v>71.84307124608588</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.74041861452948</v>
+        <v>49.74041861452927</v>
       </c>
       <c r="R4" t="n">
-        <v>26.70894696205219</v>
+        <v>26.70894696205208</v>
       </c>
       <c r="S4" t="n">
-        <v>10.35201199479459</v>
+        <v>10.35201199479455</v>
       </c>
       <c r="T4" t="n">
-        <v>2.538051975771235</v>
+        <v>2.538051975771225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0324006635204839</v>
+        <v>0.03240066352048376</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32549,13 +32549,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34463,10 +34463,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.4446233715327</v>
+        <v>100.4446233715322</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5049015864313</v>
+        <v>272.5049015864305</v>
       </c>
       <c r="L2" t="n">
-        <v>390.8711012347575</v>
+        <v>390.8711012347566</v>
       </c>
       <c r="M2" t="n">
-        <v>451.6937012785319</v>
+        <v>451.6937012785309</v>
       </c>
       <c r="N2" t="n">
-        <v>444.2227820956231</v>
+        <v>444.2227820956221</v>
       </c>
       <c r="O2" t="n">
-        <v>373.8228978410268</v>
+        <v>373.8228978410258</v>
       </c>
       <c r="P2" t="n">
-        <v>280.9942623790766</v>
+        <v>280.9942623790758</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.0132112160125</v>
+        <v>133.0132112160119</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.19445311804927</v>
+        <v>66.19445311804898</v>
       </c>
       <c r="K3" t="n">
-        <v>59.69662961981207</v>
+        <v>241.0367052062269</v>
       </c>
       <c r="L3" t="n">
-        <v>386.1282386406837</v>
+        <v>204.7881630542663</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0977062843959</v>
+        <v>503.0977062843951</v>
       </c>
       <c r="N3" t="n">
-        <v>532.2788756441378</v>
+        <v>532.278875644137</v>
       </c>
       <c r="O3" t="n">
-        <v>419.8446384073433</v>
+        <v>419.8446384073425</v>
       </c>
       <c r="P3" t="n">
-        <v>319.7875206432868</v>
+        <v>319.7875206432863</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.5394186452834</v>
+        <v>160.539418645283</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>46.74392147274776</v>
+        <v>46.74392147274746</v>
       </c>
       <c r="L4" t="n">
-        <v>115.9034337959817</v>
+        <v>115.9034337959813</v>
       </c>
       <c r="M4" t="n">
-        <v>132.6979838091245</v>
+        <v>132.6979838091241</v>
       </c>
       <c r="N4" t="n">
-        <v>135.0322338859461</v>
+        <v>135.0322338859457</v>
       </c>
       <c r="O4" t="n">
-        <v>108.5460473167869</v>
+        <v>108.5460473167865</v>
       </c>
       <c r="P4" t="n">
-        <v>69.12163051097968</v>
+        <v>69.12163051097937</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>250.5617235908419</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,10 +35422,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7653983941257</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35659,16 +35659,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>638.0550860881273</v>
       </c>
       <c r="P14" t="n">
-        <v>410.4035206551599</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789754</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>771.6913515377513</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>687.3391267687674</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>956.8578082710163</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>727.3874636142355</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36285,10 +36285,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675365</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
@@ -36361,25 +36361,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>615.5570417029754</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>276.3009265578883</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>473.0409157088425</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37306,10 +37306,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>534.1309041915088</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>577.7248423487256</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.4341780010386</v>
+        <v>77.4341780010387</v>
       </c>
       <c r="K37" t="n">
-        <v>237.903420932292</v>
+        <v>237.9034209322921</v>
       </c>
       <c r="L37" t="n">
-        <v>351.6131335581705</v>
+        <v>351.6131335581706</v>
       </c>
       <c r="M37" t="n">
-        <v>379.4891407814562</v>
+        <v>379.4891407814563</v>
       </c>
       <c r="N37" t="n">
-        <v>376.7127075555125</v>
+        <v>376.7127075555126</v>
       </c>
       <c r="O37" t="n">
         <v>334.2088916106122</v>
       </c>
       <c r="P37" t="n">
-        <v>266.8128325330828</v>
+        <v>266.8128325330829</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.249999925866</v>
+        <v>110.2499999258661</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,13 +37555,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>842.5398783034467</v>
       </c>
       <c r="P38" t="n">
-        <v>520.9338729746956</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>676.87547996674</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>685.7637716667626</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>212.5368213938596</v>
       </c>
       <c r="K44" t="n">
-        <v>614.411970709814</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
